--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1366.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1366.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.205302483295382</v>
+        <v>1.210134744644165</v>
       </c>
       <c r="B1">
-        <v>2.583716390302984</v>
+        <v>2.809362173080444</v>
       </c>
       <c r="C1">
-        <v>3.739954649474352</v>
+        <v>8.738932609558105</v>
       </c>
       <c r="D1">
-        <v>2.957437743201265</v>
+        <v>2.024343967437744</v>
       </c>
       <c r="E1">
-        <v>1.134481800382273</v>
+        <v>1.133161544799805</v>
       </c>
     </row>
   </sheetData>
